--- a/505/Project/10_1_Class 8 Fleet Data.xlsx
+++ b/505/Project/10_1_Class 8 Fleet Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13366\Documents\ABE 205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manam\Documents\GitHub\Purdue\505\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C48C5C6-A26F-4E66-919A-8CB31FA832F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA848E-423D-4B0A-A097-13B020A8F4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12864" yWindow="0" windowWidth="10176" windowHeight="12240" xr2:uid="{6ADFE6AB-8234-4ACC-BFE0-D2CDEF30FDC4}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26505" windowHeight="14760" xr2:uid="{6ADFE6AB-8234-4ACC-BFE0-D2CDEF30FDC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="36">
   <si>
     <t>Truck</t>
   </si>
@@ -205,9 +205,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -245,7 +245,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -351,7 +351,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,14 +503,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52E76C95-782D-49D1-AE30-F6BAE2E7887E}">
   <dimension ref="A1:R113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q107" sqref="Q107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -563,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -613,7 +616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -669,7 +672,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -725,7 +728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -781,7 +784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -837,7 +840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -893,7 +896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -949,7 +952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1061,7 +1064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1117,7 +1120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1621,7 +1624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1677,7 +1680,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1957,7 +1960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -2069,7 +2072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -2181,7 +2184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -2349,7 +2352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7</v>
       </c>
@@ -2629,7 +2632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8</v>
       </c>
@@ -2909,7 +2912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -2965,7 +2968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -3021,7 +3024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8</v>
       </c>
@@ -3077,7 +3080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>9</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
@@ -3245,7 +3248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
@@ -3301,7 +3304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
@@ -3357,7 +3360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9</v>
       </c>
@@ -3413,7 +3416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
@@ -3581,7 +3584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10</v>
       </c>
@@ -3637,7 +3640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
@@ -3693,7 +3696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -3861,7 +3864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -3917,7 +3920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -4029,7 +4032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>25</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>25</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -4421,7 +4424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -4533,7 +4536,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -4589,7 +4592,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>27</v>
       </c>
@@ -4645,7 +4648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>27</v>
       </c>
@@ -4701,7 +4704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>27</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>27</v>
       </c>
@@ -4813,7 +4816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>27</v>
       </c>
@@ -4869,7 +4872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -4981,7 +4984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -5037,7 +5040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -5093,7 +5096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>28</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -5205,7 +5208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -5261,7 +5264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>29</v>
       </c>
@@ -5317,7 +5320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>29</v>
       </c>
@@ -5373,7 +5376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>29</v>
       </c>
@@ -5429,7 +5432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>29</v>
       </c>
@@ -5485,7 +5488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>29</v>
       </c>
@@ -5541,7 +5544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>30</v>
       </c>
@@ -5597,7 +5600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -5653,7 +5656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -5709,7 +5712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -5765,7 +5768,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>30</v>
       </c>
@@ -5821,7 +5824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -5933,7 +5936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>31</v>
       </c>
@@ -5989,7 +5992,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>31</v>
       </c>
@@ -6045,7 +6048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>31</v>
       </c>
@@ -6101,7 +6104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>31</v>
       </c>
@@ -6157,7 +6160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -6213,7 +6216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>32</v>
       </c>
@@ -6269,7 +6272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>32</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>32</v>
       </c>
@@ -6381,7 +6384,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -6437,7 +6440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>32</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>32</v>
       </c>
@@ -6549,7 +6552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>32</v>
       </c>
@@ -6605,7 +6608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>33</v>
       </c>
@@ -6661,7 +6664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>33</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -6773,7 +6776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>33</v>
       </c>
